--- a/src/test/resources/testdata/barlintestinvalidData.xlsx
+++ b/src/test/resources/testdata/barlintestinvalidData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\barlinendto end\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325553BE-3975-486E-B167-7A98A404B7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22122194-15E0-4506-8F94-D6E296028CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F104BCDF-07CE-E345-81D9-603FD5D8F11E}"/>
   </bookViews>
@@ -16,8 +16,10 @@
     <sheet name="personal data" sheetId="1" r:id="rId1"/>
     <sheet name="BInformation" sheetId="3" r:id="rId2"/>
     <sheet name="Business Address" sheetId="5" r:id="rId3"/>
+    <sheet name="UBOs" sheetId="6" r:id="rId4"/>
+    <sheet name="Directors" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t>dob</t>
   </si>
@@ -227,6 +229,84 @@
   </si>
   <si>
     <t>SGST1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Nationality is required.</t>
+  </si>
+  <si>
+    <t>Identity number is required.</t>
+  </si>
+  <si>
+    <t>countyValidation</t>
+  </si>
+  <si>
+    <t>uboNoValidation</t>
+  </si>
+  <si>
+    <t>uboAddressValidation</t>
+  </si>
+  <si>
+    <t>uboPercentageValidation</t>
+  </si>
+  <si>
+    <t>uboIdentityNumber</t>
+  </si>
+  <si>
+    <t>uboAddress</t>
+  </si>
+  <si>
+    <t>uboPercentage</t>
+  </si>
+  <si>
+    <t>22, Choyangmen</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Identity number should be at least 5 characters long.</t>
+  </si>
+  <si>
+    <t>Full address is required.</t>
+  </si>
+  <si>
+    <t>22 test</t>
+  </si>
+  <si>
+    <t>Full address should be at least 10 characters long.</t>
+  </si>
+  <si>
+    <t>test22, Choyangmen</t>
+  </si>
+  <si>
+    <t>Percentage of ownership is required.</t>
+  </si>
+  <si>
+    <t>Percentage of ownership must be 25 or greater.</t>
+  </si>
+  <si>
+    <t>Directors are required.</t>
+  </si>
+  <si>
+    <t>directorsValidation</t>
+  </si>
+  <si>
+    <t>directorIdentityNumber</t>
+  </si>
+  <si>
+    <t>directorINoValidation</t>
+  </si>
+  <si>
+    <t>addressOfResidence</t>
+  </si>
+  <si>
+    <t>directorAddressValidation</t>
+  </si>
+  <si>
+    <t>22, Choyangmen test</t>
   </si>
 </sst>
 </file>
@@ -598,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D30B302-4260-D743-ABB2-24C949779D5A}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1094,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1178,9 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1153,4 +1235,298 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C70FFBF-3649-432A-A5C6-0738C8909079}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.09765625" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" customWidth="1"/>
+    <col min="4" max="4" width="31.796875" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="6" max="6" width="53.796875" customWidth="1"/>
+    <col min="7" max="7" width="49.3984375" customWidth="1"/>
+    <col min="8" max="8" width="50.3984375" customWidth="1"/>
+    <col min="9" max="9" width="24.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>123456789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>123456</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>123456</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97317264-D431-4F41-B27D-CFC3EBF50202}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" activeCellId="1" sqref="A7 D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.8984375" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" customWidth="1"/>
+    <col min="4" max="4" width="34.8984375" customWidth="1"/>
+    <col min="5" max="5" width="49.3984375" customWidth="1"/>
+    <col min="6" max="6" width="45.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>123456789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>123456789</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>123456789</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>123456789</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/barlintestinvalidData.xlsx
+++ b/src/test/resources/testdata/barlintestinvalidData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\barlinendto end\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22122194-15E0-4506-8F94-D6E296028CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF24C93A-5526-49F4-BB3A-F94DF22F4917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F104BCDF-07CE-E345-81D9-603FD5D8F11E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F104BCDF-07CE-E345-81D9-603FD5D8F11E}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Business Address" sheetId="5" r:id="rId3"/>
     <sheet name="UBOs" sheetId="6" r:id="rId4"/>
     <sheet name="Directors" sheetId="7" r:id="rId5"/>
+    <sheet name="Contacts" sheetId="8" r:id="rId6"/>
+    <sheet name="Banking Details" sheetId="9" r:id="rId7"/>
+    <sheet name="Store info" sheetId="10" r:id="rId8"/>
+    <sheet name="Website Basic Requirement" sheetId="11" r:id="rId9"/>
+    <sheet name="Processing Details" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="185">
   <si>
     <t>dob</t>
   </si>
@@ -84,9 +89,6 @@
     <t>streetNumber</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>countryName</t>
   </si>
   <si>
@@ -99,9 +101,6 @@
     <t>Te</t>
   </si>
   <si>
-    <t>london</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -114,9 +113,6 @@
     <t>cityValidation</t>
   </si>
   <si>
-    <t>Street number is required.</t>
-  </si>
-  <si>
     <t>Job title is required.</t>
   </si>
   <si>
@@ -156,9 +152,6 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t xml:space="preserve">India </t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -231,9 +224,6 @@
     <t>SGST1234</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>Nationality is required.</t>
   </si>
   <si>
@@ -307,16 +297,327 @@
   </si>
   <si>
     <t>22, Choyangmen test</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Email is required.</t>
+  </si>
+  <si>
+    <t>legalNameValidation</t>
+  </si>
+  <si>
+    <t>emailValidation</t>
+  </si>
+  <si>
+    <t>test@getnada.com</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>jhon</t>
+  </si>
+  <si>
+    <t>Invalid email address.</t>
+  </si>
+  <si>
+    <t>cardholderName</t>
+  </si>
+  <si>
+    <t>residentAddress</t>
+  </si>
+  <si>
+    <t>accountNumber</t>
+  </si>
+  <si>
+    <t>SWIFTCode</t>
+  </si>
+  <si>
+    <t>bankAddress</t>
+  </si>
+  <si>
+    <t>accountCurrency</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>cardholderNameValidation</t>
+  </si>
+  <si>
+    <t>accountNumberValidation</t>
+  </si>
+  <si>
+    <t>SWIFTCodeValidation</t>
+  </si>
+  <si>
+    <t>bankName</t>
+  </si>
+  <si>
+    <t>bankNameValidation</t>
+  </si>
+  <si>
+    <t>bankAddressValidation</t>
+  </si>
+  <si>
+    <t>accountCurrencyValidation</t>
+  </si>
+  <si>
+    <t>john de</t>
+  </si>
+  <si>
+    <t>Fla 5A, Tower 2 Hong Kong</t>
+  </si>
+  <si>
+    <t>HK00HKB012</t>
+  </si>
+  <si>
+    <t>hong</t>
+  </si>
+  <si>
+    <t>456 kings road</t>
+  </si>
+  <si>
+    <t>must have required property 'currency'</t>
+  </si>
+  <si>
+    <t>must have required property 'holderName'</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Holder name should be at least 5 characters long.</t>
+  </si>
+  <si>
+    <t>must have required property 'holderFullAddress'</t>
+  </si>
+  <si>
+    <t>Holder full address should be at least 10 characters long.</t>
+  </si>
+  <si>
+    <t>Fla 5A</t>
+  </si>
+  <si>
+    <t>must have required property 'accountNumber'</t>
+  </si>
+  <si>
+    <t>Account number should be at least 6 characters long.</t>
+  </si>
+  <si>
+    <t>must have required property 'swiftCode'</t>
+  </si>
+  <si>
+    <t>HK0</t>
+  </si>
+  <si>
+    <t>SWIFT code should be at least 8 characters long.</t>
+  </si>
+  <si>
+    <t>must have required property 'bankName'</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>Bank name should be at least 3 characters long.</t>
+  </si>
+  <si>
+    <t>must have required property 'bankAddress'</t>
+  </si>
+  <si>
+    <t>Bank address should be at least 10 characters long.</t>
+  </si>
+  <si>
+    <t>residentAddressValidation</t>
+  </si>
+  <si>
+    <t>websiteUrl</t>
+  </si>
+  <si>
+    <t>descriptor</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>establishedDate</t>
+  </si>
+  <si>
+    <t>websiteUrlValidation</t>
+  </si>
+  <si>
+    <t>descriptorValidation</t>
+  </si>
+  <si>
+    <t>industryValidation</t>
+  </si>
+  <si>
+    <t>productsValidation</t>
+  </si>
+  <si>
+    <t>establishedDateValidation</t>
+  </si>
+  <si>
+    <t>www.collection-sb.eu</t>
+  </si>
+  <si>
+    <t>Barclays</t>
+  </si>
+  <si>
+    <t>Smart Watches, Wireless Earbuds, Portable Chargers</t>
+  </si>
+  <si>
+    <t>Industry is required.</t>
+  </si>
+  <si>
+    <t>Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>Website URL(s) is required.</t>
+  </si>
+  <si>
+    <t>www.ggogle.com www.test.com</t>
+  </si>
+  <si>
+    <t>Website URL(s) should be valid URL(s) separated by comma.</t>
+  </si>
+  <si>
+    <t>Alcohol Sales</t>
+  </si>
+  <si>
+    <t>Doing Business As (DBA) is required.</t>
+  </si>
+  <si>
+    <t>Products information is required.</t>
+  </si>
+  <si>
+    <t>Establishment date is required.</t>
+  </si>
+  <si>
+    <t>1220 2023</t>
+  </si>
+  <si>
+    <t>1220 2021</t>
+  </si>
+  <si>
+    <t>returnAddress</t>
+  </si>
+  <si>
+    <t>productQuantity</t>
+  </si>
+  <si>
+    <t>productDescription</t>
+  </si>
+  <si>
+    <t>productPrice</t>
+  </si>
+  <si>
+    <t>returnAddressValidation</t>
+  </si>
+  <si>
+    <t>productQuantityValidation</t>
+  </si>
+  <si>
+    <t>productDescriptionValidation</t>
+  </si>
+  <si>
+    <t>productPriceValidation</t>
+  </si>
+  <si>
+    <t>Main website URL is required.</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>Contact details are required.</t>
+  </si>
+  <si>
+    <t>Product quantity is required.</t>
+  </si>
+  <si>
+    <t>Product description is required.</t>
+  </si>
+  <si>
+    <t>new test producr</t>
+  </si>
+  <si>
+    <t>Product price is required.</t>
+  </si>
+  <si>
+    <t>monthSalesVolume</t>
+  </si>
+  <si>
+    <t>ticketAmount</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Monthly Sales Volume is required.</t>
+  </si>
+  <si>
+    <t>Monthly Number Of Transactions is required.</t>
+  </si>
+  <si>
+    <t>Average Ticket Amount is required.</t>
+  </si>
+  <si>
+    <t>Customer Category is required.</t>
+  </si>
+  <si>
+    <t>B2C</t>
+  </si>
+  <si>
+    <t>salesVolumeValidation</t>
+  </si>
+  <si>
+    <t>monthNumberTransactions</t>
+  </si>
+  <si>
+    <t>monthNumberTransactionsValidation</t>
+  </si>
+  <si>
+    <t>ticketAmountValidation</t>
+  </si>
+  <si>
+    <t>categoryValidation</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Angola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,16 +655,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D30B302-4260-D743-ABB2-24C949779D5A}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="D1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -696,13 +1000,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -711,27 +1015,27 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -740,15 +1044,15 @@
         <v>9939100102</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -757,15 +1061,15 @@
         <v>9939100102</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
@@ -775,53 +1079,53 @@
         <v>9939100102</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5">
         <v>9939100102</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -830,18 +1134,18 @@
         <v>789456</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -852,6 +1156,128 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84617688-B6C1-4BE9-92BF-64CCB170F68F}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.69921875" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" customWidth="1"/>
+    <col min="3" max="3" width="29.796875" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="33.296875" customWidth="1"/>
+    <col min="6" max="6" width="39.3984375" customWidth="1"/>
+    <col min="7" max="7" width="34.19921875" customWidth="1"/>
+    <col min="8" max="8" width="26.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4000</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5000</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6000</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -884,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -893,25 +1319,25 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,7 +1346,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3">
         <v>10</v>
@@ -932,13 +1358,13 @@
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>12345678</v>
@@ -953,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -961,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>12345678</v>
@@ -976,7 +1402,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -984,7 +1410,7 @@
         <v>123456</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>70</v>
@@ -996,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1004,10 +1430,10 @@
         <v>123478</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3">
         <v>80</v>
@@ -1019,7 +1445,7 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1027,10 +1453,10 @@
         <v>123456</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -1039,7 +1465,7 @@
         <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1047,10 +1473,10 @@
         <v>123456</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3">
         <v>40</v>
@@ -1060,7 +1486,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1068,10 +1494,10 @@
         <v>123456</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3">
         <v>40</v>
@@ -1091,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81CA96F-E918-4306-A7DB-EBB4F0AC0F95}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1115,121 +1541,102 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="3">
-        <v>123</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>235</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
       <c r="B5" s="3">
-        <v>235</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
+        <v>184</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="3">
-        <v>235</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3">
-        <v>124</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1667,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1292,49 +1699,49 @@
         <v>123456789</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>123456</v>
@@ -1343,72 +1750,72 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>123456</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>123456</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>123456</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>123456</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1436,22 +1843,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1459,51 +1866,51 @@
         <v>123456789</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>123456789</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>123456789</v>
@@ -1512,21 +1919,958 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>123456789</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDC36F0-976A-47A0-9B23-54669A2C7659}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="21.796875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="24.19921875" customWidth="1"/>
+    <col min="8" max="8" width="32.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>9978546123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>9978546123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4">
+        <v>9978546123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>9978546123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>99788</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <v>99788789987</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C93C00C8-5969-43A0-B616-707D36DBF3AE}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{59407CF7-36BF-4A22-9E97-5C45C0AC8E88}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{B2F6CFC3-097F-40CD-B355-4780B2FA5498}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{3ECCE1EC-0F3D-4CAA-B8D7-F9CF4B33EC24}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{ADA1667B-6D5D-4311-AD09-19A9AEB498BC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A716177-886A-49A1-88F5-3214C371908B}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="8" max="8" width="53.19921875" customWidth="1"/>
+    <col min="9" max="9" width="50.5" customWidth="1"/>
+    <col min="10" max="10" width="54.296875" customWidth="1"/>
+    <col min="11" max="11" width="43.09765625" customWidth="1"/>
+    <col min="12" max="12" width="49.69921875" customWidth="1"/>
+    <col min="13" max="13" width="38.296875" customWidth="1"/>
+    <col min="14" max="14" width="34.8984375" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2">
+        <v>12456333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <v>12456333</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>12456333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>12456333</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>12456333</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>7125467</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>7125467</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11">
+        <v>7125467</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>7125467</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13">
+        <v>7125467</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14">
+        <v>7125467</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14">
+        <v>456</v>
+      </c>
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>7125467</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279C9400-4B7F-404B-81D8-9A37EB39542A}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" customWidth="1"/>
+    <col min="4" max="4" width="48.3984375" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" customWidth="1"/>
+    <col min="6" max="6" width="61.19921875" customWidth="1"/>
+    <col min="7" max="7" width="34.8984375" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="32.296875" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{723E2955-D6CE-44D0-A66A-4A309280E3A8}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{3217E57A-1297-49FD-B093-CE9A4B01EFF2}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{1765861E-AFA3-4162-B9C1-2BB41DDE0BC5}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{C04BBD98-EEBB-4198-950A-CD2C13246742}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{F6EC579F-A98E-4A30-B342-8A9E52D6557B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246A5CF-665B-4A25-AFB8-DF8E8F043402}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" customWidth="1"/>
+    <col min="6" max="6" width="27.69921875" customWidth="1"/>
+    <col min="7" max="7" width="27.59765625" customWidth="1"/>
+    <col min="8" max="8" width="25.59765625" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" customWidth="1"/>
+    <col min="10" max="10" width="21.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{0C24C464-A3BF-42FA-A1E0-FD14C606012B}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{8DA651B2-3ED0-42C7-B8DA-5EC029FA764E}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A60E7898-1AF1-478D-B25C-938FD94C166A}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{74103FD6-DA12-448A-866C-C124458C824D}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{8AA43142-2A7E-4D4B-8D5B-F9E875D1E5C3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/barlintestinvalidData.xlsx
+++ b/src/test/resources/testdata/barlintestinvalidData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\barlinendto end\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF24C93A-5526-49F4-BB3A-F94DF22F4917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEBD0BA-73F3-447E-8D80-771C495868B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F104BCDF-07CE-E345-81D9-603FD5D8F11E}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="5472" windowWidth="23040" windowHeight="6000" firstSheet="2" activeTab="6" xr2:uid="{F104BCDF-07CE-E345-81D9-603FD5D8F11E}"/>
   </bookViews>
   <sheets>
     <sheet name="personal data" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1519,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81CA96F-E918-4306-A7DB-EBB4F0AC0F95}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1649,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A716177-886A-49A1-88F5-3214C371908B}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
